--- a/Inconsistent namings/IDs.xlsx
+++ b/Inconsistent namings/IDs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Current</t>
   </si>
@@ -28,6 +28,33 @@
   </si>
   <si>
     <t>Reason</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Block entity</t>
+  </si>
+  <si>
+    <t>mob_spawner</t>
+  </si>
+  <si>
+    <t>spawner</t>
+  </si>
+  <si>
+    <t>Following block/item ID</t>
+  </si>
+  <si>
+    <t>Sound event</t>
+  </si>
+  <si>
+    <t>music.under_water</t>
+  </si>
+  <si>
+    <t>music.underwater</t>
+  </si>
+  <si>
+    <t>It's one word</t>
   </si>
 </sst>
 </file>
@@ -43,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -53,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,15 +142,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,28 +442,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="142.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="57.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="141.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Inconsistent namings/IDs.xlsx
+++ b/Inconsistent namings/IDs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Current</t>
   </si>
@@ -54,7 +54,163 @@
     <t>music.underwater</t>
   </si>
   <si>
-    <t>It's one word</t>
+    <t>campfire_cosy_smoke</t>
+  </si>
+  <si>
+    <t>smooth_quartz</t>
+  </si>
+  <si>
+    <t>bamboo_sapling</t>
+  </si>
+  <si>
+    <t>moving_piston</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>redstone_wire</t>
+  </si>
+  <si>
+    <t>jigsaw</t>
+  </si>
+  <si>
+    <t>ender_eye</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>small_fireball</t>
+  </si>
+  <si>
+    <t>unluck</t>
+  </si>
+  <si>
+    <t>item.totem.use</t>
+  </si>
+  <si>
+    <t>item.flintandsteel.use</t>
+  </si>
+  <si>
+    <t>item.firecharge.use</t>
+  </si>
+  <si>
+    <t>item.bottle.fill_dragonbreath</t>
+  </si>
+  <si>
+    <t>Particle</t>
+  </si>
+  <si>
+    <t>campfire_cozy_smoke</t>
+  </si>
+  <si>
+    <t>US spelling</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>smooth_quartz_block</t>
+  </si>
+  <si>
+    <t>jigsaw_block</t>
+  </si>
+  <si>
+    <t>bamboo_shoot</t>
+  </si>
+  <si>
+    <t>moving_block</t>
+  </si>
+  <si>
+    <t>vines</t>
+  </si>
+  <si>
+    <t>redstone_dust</t>
+  </si>
+  <si>
+    <t>eye_of_ender</t>
+  </si>
+  <si>
+    <t>empty_map</t>
+  </si>
+  <si>
+    <t>filled_map</t>
+  </si>
+  <si>
+    <t>fire_charge</t>
+  </si>
+  <si>
+    <t>bad_luck</t>
+  </si>
+  <si>
+    <t>item.totem_of_undying.use</t>
+  </si>
+  <si>
+    <t>item.flint_and_steel.use</t>
+  </si>
+  <si>
+    <t>item.fire_charge.use</t>
+  </si>
+  <si>
+    <t>item.bottle.fill_dragons_breath</t>
+  </si>
+  <si>
+    <t>dragon_breath</t>
+  </si>
+  <si>
+    <t>dragons_breath</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Block was renamed, ID left behind</t>
+  </si>
+  <si>
+    <t>Following block and item name</t>
+  </si>
+  <si>
+    <t>Almost all blocks can be represented; bedrock ID is also movingblock</t>
+  </si>
+  <si>
+    <t>Following name; other similar blocks have the suffic "_block" too (structure, command)</t>
+  </si>
+  <si>
+    <t>Following name and other vine types</t>
+  </si>
+  <si>
+    <t>Missing s</t>
+  </si>
+  <si>
+    <t>Following name and entity ID</t>
+  </si>
+  <si>
+    <t>Following name</t>
+  </si>
+  <si>
+    <t>Following name, additionally preventing confusion with filled maps as they're named "Map"</t>
+  </si>
+  <si>
+    <t>Following item ID</t>
+  </si>
+  <si>
+    <t>Missing underscores</t>
+  </si>
+  <si>
+    <t>Missing underscore</t>
+  </si>
+  <si>
+    <t>Missing s and underscore</t>
+  </si>
+  <si>
+    <t>Mob effect</t>
+  </si>
+  <si>
+    <t>It's one word for "submerged", 2 for "beneath water", meaning this is implied to play whenever you are beneath water, not just in it; removing the underscore fixes that</t>
   </si>
 </sst>
 </file>
@@ -70,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,17 +610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
     <col min="2" max="3" width="57.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="141.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="139.5703125" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -485,17 +653,255 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
+      <c r="D20" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
